--- a/ig/main/CodeSystem-TRE-A04-Loinc.xlsx
+++ b/ig/main/CodeSystem-TRE-A04-Loinc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="224">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T12:00:00+01:00</t>
+    <t>2023-12-15T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -578,6 +578,12 @@
   </si>
   <si>
     <t>Glucose avant repas</t>
+  </si>
+  <si>
+    <t>83869-8</t>
+  </si>
+  <si>
+    <t>Plan personnalisé de prévention</t>
   </si>
   <si>
     <t>89601-9</t>
@@ -1047,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2159,6 +2165,18 @@
       </c>
       <c r="D92" s="2"/>
     </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="D93" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/main/CodeSystem-TRE-A04-Loinc.xlsx
+++ b/ig/main/CodeSystem-TRE-A04-Loinc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="225">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:2.16.840.1.113883.6.1</t>
+    <t>urn:oid:2.16.840.1.113883.6.1</t>
   </si>
   <si>
     <t>Version</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T12:00:00+01:00</t>
+    <t>2024-01-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t>CR d'examen de l'enfant</t>
+  </si>
+  <si>
+    <t>60568-3</t>
   </si>
   <si>
     <t>60591-5</t>
@@ -1053,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1585,7 +1588,7 @@
         <v>128</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="D44" s="2"/>
     </row>
@@ -1594,10 +1597,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C45" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="D45" s="2"/>
     </row>
@@ -1606,10 +1609,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C46" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="D46" s="2"/>
     </row>
@@ -1618,10 +1621,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C47" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="D47" s="2"/>
     </row>
@@ -1630,10 +1633,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C48" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="D48" s="2"/>
     </row>
@@ -1642,10 +1645,10 @@
         <v>46</v>
       </c>
       <c r="B49" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="C49" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="D49" s="2"/>
     </row>
@@ -1657,7 +1660,7 @@
         <v>139</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="D50" s="2"/>
     </row>
@@ -1666,10 +1669,10 @@
         <v>46</v>
       </c>
       <c r="B51" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C51" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="D51" s="2"/>
     </row>
@@ -1678,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="B52" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C52" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="D52" s="2"/>
     </row>
@@ -1693,7 +1696,7 @@
         <v>144</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="D53" s="2"/>
     </row>
@@ -1702,10 +1705,10 @@
         <v>46</v>
       </c>
       <c r="B54" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C54" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="D54" s="2"/>
     </row>
@@ -1714,10 +1717,10 @@
         <v>46</v>
       </c>
       <c r="B55" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="C55" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="D55" s="2"/>
     </row>
@@ -1726,10 +1729,10 @@
         <v>46</v>
       </c>
       <c r="B56" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C56" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="D56" s="2"/>
     </row>
@@ -1741,7 +1744,7 @@
         <v>151</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="D57" s="2"/>
     </row>
@@ -1750,10 +1753,10 @@
         <v>46</v>
       </c>
       <c r="B58" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C58" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="D58" s="2"/>
     </row>
@@ -1762,10 +1765,10 @@
         <v>46</v>
       </c>
       <c r="B59" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C59" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="D59" s="2"/>
     </row>
@@ -1774,10 +1777,10 @@
         <v>46</v>
       </c>
       <c r="B60" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C60" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>48</v>
       </c>
       <c r="D60" s="2"/>
     </row>
@@ -1789,7 +1792,7 @@
         <v>158</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="D61" s="2"/>
     </row>
@@ -1798,10 +1801,10 @@
         <v>46</v>
       </c>
       <c r="B62" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C62" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="D62" s="2"/>
     </row>
@@ -1810,10 +1813,10 @@
         <v>46</v>
       </c>
       <c r="B63" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="C63" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="D63" s="2"/>
     </row>
@@ -1822,10 +1825,10 @@
         <v>46</v>
       </c>
       <c r="B64" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C64" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="D64" s="2"/>
     </row>
@@ -1834,10 +1837,10 @@
         <v>46</v>
       </c>
       <c r="B65" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C65" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="D65" s="2"/>
     </row>
@@ -1846,10 +1849,10 @@
         <v>46</v>
       </c>
       <c r="B66" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="C66" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="D66" s="2"/>
     </row>
@@ -1858,10 +1861,10 @@
         <v>46</v>
       </c>
       <c r="B67" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="C67" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="D67" s="2"/>
     </row>
@@ -1870,10 +1873,10 @@
         <v>46</v>
       </c>
       <c r="B68" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C68" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="D68" s="2"/>
     </row>
@@ -1882,10 +1885,10 @@
         <v>46</v>
       </c>
       <c r="B69" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="C69" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="D69" s="2"/>
     </row>
@@ -1894,10 +1897,10 @@
         <v>46</v>
       </c>
       <c r="B70" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C70" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="D70" s="2"/>
     </row>
@@ -1906,10 +1909,10 @@
         <v>46</v>
       </c>
       <c r="B71" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="C71" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="D71" s="2"/>
     </row>
@@ -1918,10 +1921,10 @@
         <v>46</v>
       </c>
       <c r="B72" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C72" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="D72" s="2"/>
     </row>
@@ -1930,10 +1933,10 @@
         <v>46</v>
       </c>
       <c r="B73" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="C73" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="D73" s="2"/>
     </row>
@@ -1942,10 +1945,10 @@
         <v>46</v>
       </c>
       <c r="B74" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C74" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="D74" s="2"/>
     </row>
@@ -1954,10 +1957,10 @@
         <v>46</v>
       </c>
       <c r="B75" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C75" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="D75" s="2"/>
     </row>
@@ -1966,10 +1969,10 @@
         <v>46</v>
       </c>
       <c r="B76" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C76" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="D76" s="2"/>
     </row>
@@ -1978,10 +1981,10 @@
         <v>46</v>
       </c>
       <c r="B77" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C77" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="D77" s="2"/>
     </row>
@@ -1990,10 +1993,10 @@
         <v>46</v>
       </c>
       <c r="B78" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C78" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="D78" s="2"/>
     </row>
@@ -2002,10 +2005,10 @@
         <v>46</v>
       </c>
       <c r="B79" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C79" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="D79" s="2"/>
     </row>
@@ -2014,10 +2017,10 @@
         <v>46</v>
       </c>
       <c r="B80" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C80" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="D80" s="2"/>
     </row>
@@ -2026,10 +2029,10 @@
         <v>46</v>
       </c>
       <c r="B81" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C81" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="D81" s="2"/>
     </row>
@@ -2038,10 +2041,10 @@
         <v>46</v>
       </c>
       <c r="B82" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="C82" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="D82" s="2"/>
     </row>
@@ -2050,10 +2053,10 @@
         <v>46</v>
       </c>
       <c r="B83" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C83" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="D83" s="2"/>
     </row>
@@ -2062,10 +2065,10 @@
         <v>46</v>
       </c>
       <c r="B84" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C84" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="D84" s="2"/>
     </row>
@@ -2074,10 +2077,10 @@
         <v>46</v>
       </c>
       <c r="B85" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="C85" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="D85" s="2"/>
     </row>
@@ -2086,10 +2089,10 @@
         <v>46</v>
       </c>
       <c r="B86" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="C86" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="D86" s="2"/>
     </row>
@@ -2098,10 +2101,10 @@
         <v>46</v>
       </c>
       <c r="B87" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C87" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="D87" s="2"/>
     </row>
@@ -2110,10 +2113,10 @@
         <v>46</v>
       </c>
       <c r="B88" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C88" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="D88" s="2"/>
     </row>
@@ -2122,10 +2125,10 @@
         <v>46</v>
       </c>
       <c r="B89" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C89" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="D89" s="2"/>
     </row>
@@ -2134,10 +2137,10 @@
         <v>46</v>
       </c>
       <c r="B90" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="C90" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="D90" s="2"/>
     </row>
@@ -2146,10 +2149,10 @@
         <v>46</v>
       </c>
       <c r="B91" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="C91" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="D91" s="2"/>
     </row>
@@ -2158,10 +2161,10 @@
         <v>46</v>
       </c>
       <c r="B92" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C92" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="D92" s="2"/>
     </row>
@@ -2170,12 +2173,24 @@
         <v>46</v>
       </c>
       <c r="B93" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C93" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B94" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="D93" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="D94" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/main/CodeSystem-TRE-A04-Loinc.xlsx
+++ b/ig/main/CodeSystem-TRE-A04-Loinc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="231">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T12:00:00+01:00</t>
+    <t>2024-02-23T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -343,6 +343,12 @@
     <t>CR de bilan fonctionnel (par auxiliaire médical)</t>
   </si>
   <si>
+    <t>51851-4</t>
+  </si>
+  <si>
+    <t>Document administratif</t>
+  </si>
+  <si>
     <t>51969-4</t>
   </si>
   <si>
@@ -379,6 +385,12 @@
     <t>Bilan médicamenteux (Officine)</t>
   </si>
   <si>
+    <t>56446-8</t>
+  </si>
+  <si>
+    <t>Notification de rendez-vous</t>
+  </si>
+  <si>
     <t>57828-6</t>
   </si>
   <si>
@@ -398,6 +410,12 @@
   </si>
   <si>
     <t>CR d'examen de l'enfant</t>
+  </si>
+  <si>
+    <t>59284-0</t>
+  </si>
+  <si>
+    <t>Attestation de consentement</t>
   </si>
   <si>
     <t>60568-3</t>
@@ -1056,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1540,7 +1558,7 @@
         <v>121</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D40" s="2"/>
     </row>
@@ -1549,10 +1567,10 @@
         <v>46</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="2"/>
     </row>
@@ -1561,10 +1579,10 @@
         <v>46</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D42" s="2"/>
     </row>
@@ -1588,7 +1606,7 @@
         <v>128</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="D44" s="2"/>
     </row>
@@ -1597,10 +1615,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="2"/>
     </row>
@@ -1609,10 +1627,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D46" s="2"/>
     </row>
@@ -1621,10 +1639,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="D47" s="2"/>
     </row>
@@ -1660,7 +1678,7 @@
         <v>139</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="D50" s="2"/>
     </row>
@@ -1669,10 +1687,10 @@
         <v>46</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D51" s="2"/>
     </row>
@@ -1681,10 +1699,10 @@
         <v>46</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D52" s="2"/>
     </row>
@@ -1693,10 +1711,10 @@
         <v>46</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D53" s="2"/>
     </row>
@@ -1705,10 +1723,10 @@
         <v>46</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D54" s="2"/>
     </row>
@@ -1717,10 +1735,10 @@
         <v>46</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D55" s="2"/>
     </row>
@@ -1729,10 +1747,10 @@
         <v>46</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="D56" s="2"/>
     </row>
@@ -1744,7 +1762,7 @@
         <v>151</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="D57" s="2"/>
     </row>
@@ -1753,10 +1771,10 @@
         <v>46</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D58" s="2"/>
     </row>
@@ -1765,10 +1783,10 @@
         <v>46</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D59" s="2"/>
     </row>
@@ -1777,10 +1795,10 @@
         <v>46</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="D60" s="2"/>
     </row>
@@ -1792,7 +1810,7 @@
         <v>158</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="D61" s="2"/>
     </row>
@@ -1801,10 +1819,10 @@
         <v>46</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D62" s="2"/>
     </row>
@@ -1813,10 +1831,10 @@
         <v>46</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D63" s="2"/>
     </row>
@@ -1825,10 +1843,10 @@
         <v>46</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="D64" s="2"/>
     </row>
@@ -2191,6 +2209,42 @@
         <v>224</v>
       </c>
       <c r="D94" s="2"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="D97" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/main/CodeSystem-TRE-A04-Loinc.xlsx
+++ b/ig/main/CodeSystem-TRE-A04-Loinc.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/CodeSystem-TRE-A04-Loinc.xlsx
+++ b/ig/main/CodeSystem-TRE-A04-Loinc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="267">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-23T12:00:00+01:00</t>
+    <t>2024-03-29T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -163,6 +163,9 @@
     <t>CR d'anesthésie</t>
   </si>
   <si>
+    <t>Surgical operation note anesthesia Document réalisé par un anesthésiste ou une infirmière anesthésiste diplômée d'état au cours ou au décours d'une anesthésie, décrivant son déroulement et son issue.</t>
+  </si>
+  <si>
     <t>11369-6</t>
   </si>
   <si>
@@ -175,60 +178,90 @@
     <t>CR ou fiche de consultation ou de visite</t>
   </si>
   <si>
+    <t>Consultation note {Provider} Document réalisé à l'issue d'une consultation médicale ou chirurgicale indiquant le motif de la consultation, les principales observations, le résultat de consultation et la conduite à tenir.</t>
+  </si>
+  <si>
     <t>11490-0</t>
   </si>
   <si>
     <t>Lettre de liaison à la sortie d'un établissement de soins</t>
   </si>
   <si>
+    <t>Physician hospital discharge summary La lettre de sortie synthétise le cas d'un patient à l'occasion d'un séjour dans un hôpital ou dans un centre de soins. Elle comprend en principe l'ensemble des diagnostics qui ont été posés durant ce séjour. Les diagnostics actifs sont étayés par d'autres éléments du dossier dont les conclusions sont citées. La lettre de sortie contient aussi des commentaires, ou une discussion si nécessaire, et le traitement à suivre après le départ de l'hôpital. Enfin, la lettre de sortie donne des recommandations pour le suivi médical. Le but premier d'une lettre de sortie est par conséquent d'informer le médecin traitant qui suivra le patient après sa sortie.</t>
+  </si>
+  <si>
     <t>11493-4</t>
   </si>
   <si>
     <t>CR hospitalier (séjour)</t>
   </si>
   <si>
+    <t>Hospital discharge studies Summary</t>
+  </si>
+  <si>
     <t>11502-2</t>
   </si>
   <si>
     <t>CR d'examens biologiques</t>
   </si>
   <si>
+    <t>LABORATORY REPORT TOTAL Compte rendu d'analyses de biologie médicale.</t>
+  </si>
+  <si>
     <t>11505-5</t>
   </si>
   <si>
     <t>CR d'acte thérapeutique (autre)</t>
   </si>
   <si>
+    <t>Physician procedure note Document rendant compte d'un acte thérapeutique.</t>
+  </si>
+  <si>
     <t>11506-3</t>
   </si>
   <si>
     <t>CR ou fiche de suivi de soins par auxil médical</t>
   </si>
   <si>
+    <t>Provider-unspecified Progress Note Document rédigé par une sage-femme, un infirmier ou un auxiliaire médical rendant compte des soins réalisés et des résultats obtenus.</t>
+  </si>
+  <si>
     <t>11526-1</t>
   </si>
   <si>
     <t>CR d'anatomie et de cytologie pathologiques</t>
   </si>
   <si>
+    <t>PATHOLOGY STUDY Document réalisé par un pathologiste rendant compte de l'examen d'un ou plusieurs échantillons biologiques de type pièce opératoire ou prélèvement par biopsie ou échantillon cytologique ou bien rendant compte d'une autopsie. Différents modèles de comptes rendus peuvent exister, adaptés au type de prélèvement et à l'organe concerné.</t>
+  </si>
+  <si>
     <t>11528-7</t>
   </si>
   <si>
     <t>CR d'imagerie médicale</t>
   </si>
   <si>
+    <t>Radiology Unspecified site and modality Study Document réalisé par un médecin radiologue qui interprète les images obtenues au cours d'un examen utilisant une technique d'imagerie médicale.</t>
+  </si>
+  <si>
     <t>15507-7</t>
   </si>
   <si>
     <t>CR de passage aux urgences</t>
   </si>
   <si>
+    <t>Provider-unspecified ED Progress note RPU.</t>
+  </si>
+  <si>
     <t>15508-5</t>
   </si>
   <si>
     <t>CR d'accouchement</t>
   </si>
   <si>
+    <t>Labor and delivery records Document réalisé par un gynécologue obstétricien ou par une sage-femme, décrivant le déroulement d'un accouchement, le mode de délivrance et l'état de l'enfant à la naissance.</t>
+  </si>
+  <si>
     <t>18748-4</t>
   </si>
   <si>
@@ -244,18 +277,27 @@
     <t>Plan personnalisé de soins</t>
   </si>
   <si>
+    <t>Plan of treatment Document rédigé par un professionnel de santé identifiant le(s) problème(s) du patient et le plan de prise en charge prévu pour une période déterminée.</t>
+  </si>
+  <si>
     <t>24611-6</t>
   </si>
   <si>
     <t>CR de télé-médecine (télé-consultation)</t>
   </si>
   <si>
+    <t>Outpatient Consultation 2nd opinion Conclusion d'une activité médicale de consultation réalisée à distance.</t>
+  </si>
+  <si>
     <t>27899-4</t>
   </si>
   <si>
     <t>CR d'acte diagnostique (autre)</t>
   </si>
   <si>
+    <t>Diagnostic studies.non lab Document réalisé par le médecin ayant pratiqué l'acte qui décrit la technique utilisée, les principales observations et la conclusion de l'examen.</t>
+  </si>
+  <si>
     <t>28653-4</t>
   </si>
   <si>
@@ -274,18 +316,27 @@
     <t>Dispensation médicamenteuse (non codée)</t>
   </si>
   <si>
+    <t>Medication dispensed Document rédigé par un pharmacien, listant les médicaments dispensés au patient.</t>
+  </si>
+  <si>
     <t>29551-9</t>
   </si>
   <si>
     <t>Prescription de médicaments (non codée)</t>
   </si>
   <si>
+    <t>Medication prescribed Document médico-légal rédigé par un médecin ou une sage-femme indiquant les médicaments prescrits, la posologie, la durée du traitement et le cas échéant des consignes d'administration ou de surveillance.</t>
+  </si>
+  <si>
     <t>29554-3</t>
   </si>
   <si>
     <t>CR d'acte thérapeutique à visée préventive</t>
   </si>
   <si>
+    <t>Procedure Document réalisé par le médecin ayant pratiqué l'acte thérapeutique dans le but de prévenir une pathologie à un stade infra clinique, Il décrit la technique utilisée, les principales observations et la conclusion de l'intervention.</t>
+  </si>
+  <si>
     <t>34112-3</t>
   </si>
   <si>
@@ -295,18 +346,27 @@
     <t>Synthèse d'épisode de soins</t>
   </si>
   <si>
+    <t>Summarization of episode note Document réalisé par un professionnel de santé résumant l'état clinique et l'état de la prise en charge médicale d'un(e) patient(e) à l'issue d'un épisode de soins.</t>
+  </si>
+  <si>
     <t>34749-2</t>
   </si>
   <si>
     <t>CR de consultation pré-anesthésique</t>
   </si>
   <si>
+    <t>Consultation note {Anesthesia} Document réalisé par un anesthésiste, rendant compte de sa consultation, en vue d'une anesthésie à venir.</t>
+  </si>
+  <si>
     <t>34794-8</t>
   </si>
   <si>
     <t>CR de réunion de concertation pluridisciplinaire</t>
   </si>
   <si>
+    <t>Multidisciplinary evaluation and management note Document rédigé par un PS à l'issue d'une réunion réunissant plusieurs PS autour de la prise en charge d'un patient, et décrivant les décisions prises à son sujet.</t>
+  </si>
+  <si>
     <t>34842-5</t>
   </si>
   <si>
@@ -319,6 +379,9 @@
     <t>CR opératoire</t>
   </si>
   <si>
+    <t>Surgery Surgical operation note Document réalisé par un chirurgien décrivant la technique employé, le déroulement de l'intervention chirurgicale, les pièces éventuellement prélevée, et les dispositifs médicaux éventuellement administrés.</t>
+  </si>
+  <si>
     <t>34875-5</t>
   </si>
   <si>
@@ -331,18 +394,27 @@
     <t>CR d'acte diag à visée prév ou de dépistage</t>
   </si>
   <si>
+    <t>History and physical screen assessment Document réalisé par le médecin ayant pratiqué l'acte à visée diagnostique dans le but de prévenir une pathologie à un stade infra clinique, ou de dépister une pathologie. Il décrit la technique utilisée, les principales observations et la conclusion de l'examen.</t>
+  </si>
+  <si>
     <t>46241-6</t>
   </si>
   <si>
     <t>CR d'admission</t>
   </si>
   <si>
+    <t>Hospital admission Dx Document réalisé à l'issue de l'admission d'un patient dans un établissement de santé résumant l'état initial du patient, et la prise en charge prévue.</t>
+  </si>
+  <si>
     <t>47420-5</t>
   </si>
   <si>
     <t>CR de bilan fonctionnel (par auxiliaire médical)</t>
   </si>
   <si>
+    <t>Functional status assessment Document Document réalisé par un auxiliaire médical décrivant l'état d'une fonction d'un patient</t>
+  </si>
+  <si>
     <t>51851-4</t>
   </si>
   <si>
@@ -361,30 +433,45 @@
     <t>Document encapsulant une image d'illustration non DICOM</t>
   </si>
   <si>
+    <t>Dental X-rays and other images (not DICOM) attachment Images acquises au cours d'un acte diagnostique ou thérapeutique, conservées dans un dossier partagé sous un format autre que DICOM (ex : TIFF, JPEG, PNG …).</t>
+  </si>
+  <si>
     <t>52063-5</t>
   </si>
   <si>
     <t>Prescription (autre)</t>
   </si>
   <si>
+    <t>Prescription for durable medical equipment attachment Document indiquant le dispositif médical prescrit, les consignes de pose et de surveillance.</t>
+  </si>
+  <si>
     <t>52521-2</t>
   </si>
   <si>
     <t>Presccription de soins</t>
   </si>
   <si>
+    <t>Overall Plan of Care &amp;or Advance Care Directives Document rédigé par un médecin prescrivant les soins à réaliser.</t>
+  </si>
+  <si>
     <t>55115-0</t>
   </si>
   <si>
     <t>Demande d'actes d'imagerie</t>
   </si>
   <si>
+    <t>Demande d'acte d'imagerie.</t>
+  </si>
+  <si>
     <t>56445-0</t>
   </si>
   <si>
     <t>Bilan médicamenteux (Officine)</t>
   </si>
   <si>
+    <t>Bilan médicamenteux réalisé dans le cadre d'une conciliation des traitements médicamenteux ou d'un bilan partagé de médication.</t>
+  </si>
+  <si>
     <t>56446-8</t>
   </si>
   <si>
@@ -439,6 +526,9 @@
     <t>Intervention pharmaceutique</t>
   </si>
   <si>
+    <t>Intervention du pharmacien auprès du prescripteur sur une ligne de prescription.</t>
+  </si>
+  <si>
     <t>61358-8</t>
   </si>
   <si>
@@ -487,6 +577,9 @@
     <t>Renouvellement ordonnance par pharmacien correspondant</t>
   </si>
   <si>
+    <t>Renouvellement et adaptation des posologies par le pharmacien correspondant. Dans le cadre d'un renouvellement périodique des traitements chroniques.</t>
+  </si>
+  <si>
     <t>75482-0</t>
   </si>
   <si>
@@ -517,6 +610,9 @@
     <t>Planification thérapeutique</t>
   </si>
   <si>
+    <t>Plan de prise associé à la dispensation des traitements.</t>
+  </si>
+  <si>
     <t>78513-9</t>
   </si>
   <si>
@@ -547,6 +643,9 @@
     <t>Formulaire de conciliation médicamenteuse (Hôpital)</t>
   </si>
   <si>
+    <t>Formulaire permettant l'analyse des divergences entre le bilan médicamenteux et la prescription en cours dans le cadre de la conciliation médicamenteuse.</t>
+  </si>
+  <si>
     <t>83836-7</t>
   </si>
   <si>
@@ -601,6 +700,9 @@
     <t>Glucose avant repas</t>
   </si>
   <si>
+    <t>Glucose [Mass/volume] in Blood --pre-meal</t>
+  </si>
+  <si>
     <t>83869-8</t>
   </si>
   <si>
@@ -619,6 +721,9 @@
     <t>CR de consultation pharmaceutique</t>
   </si>
   <si>
+    <t>Réalisation d'un bilan de médication et/ou d'un plan pharmaceutique personnalisé dans le cadre d'une consultation pharmaceutique.</t>
+  </si>
+  <si>
     <t>96173-0</t>
   </si>
   <si>
@@ -647,6 +752,9 @@
   </si>
   <si>
     <t>Hémoglobine A1c %</t>
+  </si>
+  <si>
+    <t>L'hémoglobine glyquée (HbA1C) est la part de l'hémoglobine qui capte le sucre dans le sang.</t>
   </si>
   <si>
     <t>53049-3</t>
@@ -1104,17 +1212,19 @@
       <c r="C2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>49</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1123,130 +1233,150 @@
         <v>46</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>54</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>57</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>63</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>66</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>69</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>72</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>75</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>78</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>81</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -1255,10 +1385,10 @@
         <v>46</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -1267,46 +1397,52 @@
         <v>46</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>87</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>90</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>93</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -1315,10 +1451,10 @@
         <v>46</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D20" s="2"/>
     </row>
@@ -1327,46 +1463,52 @@
         <v>46</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>103</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>106</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -1375,46 +1517,52 @@
         <v>46</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>110</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>113</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>116</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D28" s="2"/>
     </row>
@@ -1423,22 +1571,24 @@
         <v>46</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="D29" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>121</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -1447,46 +1597,52 @@
         <v>46</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="D31" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>126</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="D32" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>129</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>132</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="D34" s="2"/>
     </row>
@@ -1495,10 +1651,10 @@
         <v>46</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="D35" s="2"/>
     </row>
@@ -1507,70 +1663,80 @@
         <v>46</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>139</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>142</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>145</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="D39" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>148</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="D40" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>151</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="D41" s="2"/>
     </row>
@@ -1579,10 +1745,10 @@
         <v>46</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="D42" s="2"/>
     </row>
@@ -1591,10 +1757,10 @@
         <v>46</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="D43" s="2"/>
     </row>
@@ -1603,22 +1769,24 @@
         <v>46</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="D44" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>158</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="D45" s="2"/>
     </row>
@@ -1627,10 +1795,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="D46" s="2"/>
     </row>
@@ -1639,10 +1807,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D47" s="2"/>
     </row>
@@ -1651,10 +1819,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="D48" s="2"/>
     </row>
@@ -1663,10 +1831,10 @@
         <v>46</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="D49" s="2"/>
     </row>
@@ -1675,22 +1843,24 @@
         <v>46</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="D50" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="D50" t="s" s="2">
+        <v>170</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="D51" s="2"/>
     </row>
@@ -1699,10 +1869,10 @@
         <v>46</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="D52" s="2"/>
     </row>
@@ -1711,10 +1881,10 @@
         <v>46</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D53" s="2"/>
     </row>
@@ -1723,10 +1893,10 @@
         <v>46</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="D54" s="2"/>
     </row>
@@ -1735,10 +1905,10 @@
         <v>46</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="D55" s="2"/>
     </row>
@@ -1747,10 +1917,10 @@
         <v>46</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D56" s="2"/>
     </row>
@@ -1759,10 +1929,10 @@
         <v>46</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="D57" s="2"/>
     </row>
@@ -1771,10 +1941,10 @@
         <v>46</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="D58" s="2"/>
     </row>
@@ -1783,22 +1953,24 @@
         <v>46</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="D59" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>187</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D60" s="2"/>
     </row>
@@ -1807,10 +1979,10 @@
         <v>46</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="D61" s="2"/>
     </row>
@@ -1819,10 +1991,10 @@
         <v>46</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="D62" s="2"/>
     </row>
@@ -1831,10 +2003,10 @@
         <v>46</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="D63" s="2"/>
     </row>
@@ -1843,7 +2015,7 @@
         <v>46</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>48</v>
@@ -1855,22 +2027,24 @@
         <v>46</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="D65" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>198</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="D66" s="2"/>
     </row>
@@ -1879,10 +2053,10 @@
         <v>46</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="D67" s="2"/>
     </row>
@@ -1891,10 +2065,10 @@
         <v>46</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="D68" s="2"/>
     </row>
@@ -1903,10 +2077,10 @@
         <v>46</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="D69" s="2"/>
     </row>
@@ -1915,22 +2089,24 @@
         <v>46</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="D70" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>209</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="D71" s="2"/>
     </row>
@@ -1939,10 +2115,10 @@
         <v>46</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="D72" s="2"/>
     </row>
@@ -1951,10 +2127,10 @@
         <v>46</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="D73" s="2"/>
     </row>
@@ -1963,10 +2139,10 @@
         <v>46</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="D74" s="2"/>
     </row>
@@ -1975,10 +2151,10 @@
         <v>46</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="D75" s="2"/>
     </row>
@@ -1987,10 +2163,10 @@
         <v>46</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="D76" s="2"/>
     </row>
@@ -1999,10 +2175,10 @@
         <v>46</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="D77" s="2"/>
     </row>
@@ -2011,10 +2187,10 @@
         <v>46</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="D78" s="2"/>
     </row>
@@ -2023,22 +2199,24 @@
         <v>46</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="D79" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="D79" t="s" s="2">
+        <v>228</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="D80" s="2"/>
     </row>
@@ -2047,10 +2225,10 @@
         <v>46</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="D81" s="2"/>
     </row>
@@ -2059,22 +2237,24 @@
         <v>46</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="D82" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>235</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="D83" s="2"/>
     </row>
@@ -2083,10 +2263,10 @@
         <v>46</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="D84" s="2"/>
     </row>
@@ -2095,10 +2275,10 @@
         <v>46</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="D85" s="2"/>
     </row>
@@ -2107,10 +2287,10 @@
         <v>46</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="D86" s="2"/>
     </row>
@@ -2119,22 +2299,24 @@
         <v>46</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="D87" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="D87" t="s" s="2">
+        <v>246</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="D88" s="2"/>
     </row>
@@ -2143,10 +2325,10 @@
         <v>46</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="D89" s="2"/>
     </row>
@@ -2155,10 +2337,10 @@
         <v>46</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="D90" s="2"/>
     </row>
@@ -2167,10 +2349,10 @@
         <v>46</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="D91" s="2"/>
     </row>
@@ -2179,10 +2361,10 @@
         <v>46</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="D92" s="2"/>
     </row>
@@ -2191,10 +2373,10 @@
         <v>46</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="D93" s="2"/>
     </row>
@@ -2203,10 +2385,10 @@
         <v>46</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="D94" s="2"/>
     </row>
@@ -2215,10 +2397,10 @@
         <v>46</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="D95" s="2"/>
     </row>
@@ -2227,10 +2409,10 @@
         <v>46</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="D96" s="2"/>
     </row>
@@ -2239,10 +2421,10 @@
         <v>46</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="D97" s="2"/>
     </row>

--- a/ig/main/CodeSystem-TRE-A04-Loinc.xlsx
+++ b/ig/main/CodeSystem-TRE-A04-Loinc.xlsx
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/main/CodeSystem-TRE-A04-Loinc.xlsx
+++ b/ig/main/CodeSystem-TRE-A04-Loinc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="277">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T12:00:00+01:00</t>
+    <t>2024-04-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -298,6 +298,12 @@
     <t>Diagnostic studies.non lab Document réalisé par le médecin ayant pratiqué l'acte qui décrit la technique utilisée, les principales observations et la conclusion de l'examen.</t>
   </si>
   <si>
+    <t>28617-9</t>
+  </si>
+  <si>
+    <t>Bilan bucco-dentaire</t>
+  </si>
+  <si>
     <t>28653-4</t>
   </si>
   <si>
@@ -340,6 +346,12 @@
     <t>34112-3</t>
   </si>
   <si>
+    <t>34120-6</t>
+  </si>
+  <si>
+    <t>Bilan par auxiliaire médical</t>
+  </si>
+  <si>
     <t>34133-9</t>
   </si>
   <si>
@@ -409,7 +421,7 @@
     <t>47420-5</t>
   </si>
   <si>
-    <t>CR de bilan fonctionnel (par auxiliaire médical)</t>
+    <t>CR de bilan fonctionnel</t>
   </si>
   <si>
     <t>Functional status assessment Document Document réalisé par un auxiliaire médical décrivant l'état d'une fonction d'un patient</t>
@@ -505,13 +517,19 @@
     <t>Attestation de consentement</t>
   </si>
   <si>
+    <t>60280-5</t>
+  </si>
+  <si>
+    <t>Fiche de retour du service des urgences</t>
+  </si>
+  <si>
     <t>60568-3</t>
   </si>
   <si>
     <t>60591-5</t>
   </si>
   <si>
-    <t>Synthèse du dossier médical</t>
+    <t>Synthèse médicale</t>
   </si>
   <si>
     <t>60593-1</t>
@@ -613,6 +631,12 @@
     <t>Plan de prise associé à la dispensation des traitements.</t>
   </si>
   <si>
+    <t>78341-5</t>
+  </si>
+  <si>
+    <t>Fiche de transfert vers le service des urgences</t>
+  </si>
+  <si>
     <t>78513-9</t>
   </si>
   <si>
@@ -815,6 +839,12 @@
   </si>
   <si>
     <t>Synthèse Enfant en Maternité</t>
+  </si>
+  <si>
+    <t>89233-1</t>
+  </si>
+  <si>
+    <t>CR de grossesse</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1468,22 +1498,20 @@
       <c r="C21" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="D21" t="s" s="2">
-        <v>100</v>
-      </c>
+      <c r="D21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B22" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="D22" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="D22" t="s" s="2">
-        <v>103</v>
       </c>
     </row>
     <row r="23">
@@ -1491,13 +1519,13 @@
         <v>46</v>
       </c>
       <c r="B23" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="D23" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="D23" t="s" s="2">
-        <v>106</v>
       </c>
     </row>
     <row r="24">
@@ -1505,53 +1533,51 @@
         <v>46</v>
       </c>
       <c r="B24" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C24" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="D24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>108</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B26" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C26" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="C26" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>113</v>
-      </c>
+      <c r="D26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B27" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="D27" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="D27" t="s" s="2">
-        <v>116</v>
       </c>
     </row>
     <row r="28">
@@ -1559,25 +1585,27 @@
         <v>46</v>
       </c>
       <c r="B28" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="D28" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="D28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B29" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C29" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="D29" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="30">
@@ -1585,10 +1613,10 @@
         <v>46</v>
       </c>
       <c r="B30" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C30" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -1597,13 +1625,13 @@
         <v>46</v>
       </c>
       <c r="B31" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="D31" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>126</v>
       </c>
     </row>
     <row r="32">
@@ -1611,27 +1639,25 @@
         <v>46</v>
       </c>
       <c r="B32" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C32" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="D32" t="s" s="2">
-        <v>129</v>
-      </c>
+      <c r="D32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B33" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="D33" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D33" t="s" s="2">
-        <v>132</v>
       </c>
     </row>
     <row r="34">
@@ -1639,24 +1665,28 @@
         <v>46</v>
       </c>
       <c r="B34" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="D34" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="D34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B35" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C35" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="D35" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="D35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
@@ -1668,36 +1698,32 @@
       <c r="C36" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="D36" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="D36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B37" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C37" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="D37" t="s" s="2">
-        <v>142</v>
-      </c>
+      <c r="D37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B38" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="D38" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="D38" t="s" s="2">
-        <v>145</v>
       </c>
     </row>
     <row r="39">
@@ -1705,13 +1731,13 @@
         <v>46</v>
       </c>
       <c r="B39" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="D39" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>148</v>
       </c>
     </row>
     <row r="40">
@@ -1719,13 +1745,13 @@
         <v>46</v>
       </c>
       <c r="B40" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="D40" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="D40" t="s" s="2">
-        <v>151</v>
       </c>
     </row>
     <row r="41">
@@ -1733,34 +1759,38 @@
         <v>46</v>
       </c>
       <c r="B41" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="D41" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="C41" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="D41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B42" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C42" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="D42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>155</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D43" s="2"/>
     </row>
@@ -1769,14 +1799,12 @@
         <v>46</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="D44" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
@@ -1800,7 +1828,9 @@
       <c r="C46" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>162</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
@@ -1810,7 +1840,7 @@
         <v>163</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="D47" s="2"/>
     </row>
@@ -1819,10 +1849,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D48" s="2"/>
     </row>
@@ -1831,10 +1861,10 @@
         <v>46</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D49" s="2"/>
     </row>
@@ -1843,24 +1873,22 @@
         <v>46</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="D50" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B51" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="C51" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="D51" s="2"/>
     </row>
@@ -1869,10 +1897,10 @@
         <v>46</v>
       </c>
       <c r="B52" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="C52" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="D52" s="2"/>
     </row>
@@ -1881,22 +1909,24 @@
         <v>46</v>
       </c>
       <c r="B53" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="C53" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="D53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>176</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D54" s="2"/>
     </row>
@@ -1905,10 +1935,10 @@
         <v>46</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D55" s="2"/>
     </row>
@@ -1917,10 +1947,10 @@
         <v>46</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="D56" s="2"/>
     </row>
@@ -1929,10 +1959,10 @@
         <v>46</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D57" s="2"/>
     </row>
@@ -1941,10 +1971,10 @@
         <v>46</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D58" s="2"/>
     </row>
@@ -1953,24 +1983,22 @@
         <v>46</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="D59" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B60" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C60" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="D60" s="2"/>
     </row>
@@ -1996,17 +2024,19 @@
       <c r="C62" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="D62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>193</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="D63" s="2"/>
     </row>
@@ -2018,7 +2048,7 @@
         <v>195</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="D64" s="2"/>
     </row>
@@ -2027,14 +2057,12 @@
         <v>46</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="D65" t="s" s="2">
         <v>198</v>
       </c>
+      <c r="D65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
@@ -2056,7 +2084,7 @@
         <v>201</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>202</v>
+        <v>48</v>
       </c>
       <c r="D67" s="2"/>
     </row>
@@ -2065,12 +2093,14 @@
         <v>46</v>
       </c>
       <c r="B68" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C68" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="D68" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="D68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
@@ -2094,19 +2124,17 @@
       <c r="C70" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="D70" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="D70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B71" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C71" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="D71" s="2"/>
     </row>
@@ -2115,10 +2143,10 @@
         <v>46</v>
       </c>
       <c r="B72" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C72" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="D72" s="2"/>
     </row>
@@ -2127,10 +2155,10 @@
         <v>46</v>
       </c>
       <c r="B73" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C73" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="D73" s="2"/>
     </row>
@@ -2139,12 +2167,14 @@
         <v>46</v>
       </c>
       <c r="B74" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="C74" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="D74" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="D74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
@@ -2204,19 +2234,17 @@
       <c r="C79" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="D79" t="s" s="2">
-        <v>228</v>
-      </c>
+      <c r="D79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B80" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="C80" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="D80" s="2"/>
     </row>
@@ -2225,10 +2253,10 @@
         <v>46</v>
       </c>
       <c r="B81" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="C81" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="D81" s="2"/>
     </row>
@@ -2237,36 +2265,36 @@
         <v>46</v>
       </c>
       <c r="B82" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C82" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="C82" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="D82" t="s" s="2">
-        <v>235</v>
-      </c>
+      <c r="D82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B83" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D83" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="D83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B84" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="C84" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="D84" s="2"/>
     </row>
@@ -2275,10 +2303,10 @@
         <v>46</v>
       </c>
       <c r="B85" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="C85" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="D85" s="2"/>
     </row>
@@ -2287,12 +2315,14 @@
         <v>46</v>
       </c>
       <c r="B86" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C86" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="D86" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="D86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
@@ -2304,19 +2334,17 @@
       <c r="C87" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="D87" t="s" s="2">
-        <v>246</v>
-      </c>
+      <c r="D87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
         <v>46</v>
       </c>
       <c r="B88" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C88" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="D88" s="2"/>
     </row>
@@ -2325,10 +2353,10 @@
         <v>46</v>
       </c>
       <c r="B89" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C89" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="D89" s="2"/>
     </row>
@@ -2337,10 +2365,10 @@
         <v>46</v>
       </c>
       <c r="B90" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C90" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="D90" s="2"/>
     </row>
@@ -2349,12 +2377,14 @@
         <v>46</v>
       </c>
       <c r="B91" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C91" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="D91" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="D91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
@@ -2427,6 +2457,66 @@
         <v>266</v>
       </c>
       <c r="D97" s="2"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="D102" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/main/CodeSystem-TRE-A04-Loinc.xlsx
+++ b/ig/main/CodeSystem-TRE-A04-Loinc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="279">
   <si>
     <t>Property</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -978,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1084,63 +1090,71 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s" s="2">
         <v>30</v>
       </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" t="s" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1157,52 +1171,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>40</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1220,1301 +1234,1301 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D83" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D86" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D91" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D96" s="2"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D99" s="2"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D100" s="2"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D102" s="2"/>
     </row>

--- a/ig/main/CodeSystem-TRE-A04-Loinc.xlsx
+++ b/ig/main/CodeSystem-TRE-A04-Loinc.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T12:00:00+01:00</t>
+    <t>2024-07-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -586,7 +586,7 @@
     <t>74207-2</t>
   </si>
   <si>
-    <t>Dossier de liaison d'urgence</t>
+    <t>Document de liaison d'urgence</t>
   </si>
   <si>
     <t>74465-6</t>
@@ -757,7 +757,7 @@
     <t>96173-0</t>
   </si>
   <si>
-    <t>Attestation de dépistage</t>
+    <t>Test rapide d'orientation diagnostique</t>
   </si>
   <si>
     <t>96349-6</t>

--- a/ig/main/CodeSystem-TRE-A04-Loinc.xlsx
+++ b/ig/main/CodeSystem-TRE-A04-Loinc.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
